--- a/Loan_Result_Data.xlsx
+++ b/Loan_Result_Data.xlsx
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2.043478260869565</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>941.4694444652933</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>3.08695652173913</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>941.4694444652933</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>4.130434782608695</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>941.4694444652933</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5.173913043478261</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>941.4694444652933</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>6.217391304347826</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>941.4694444652933</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>7.260869565217391</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>941.4694444652933</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>8.304347826086957</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>941.4694444652933</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>9.347826086956522</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>941.4694444652933</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>10.39130434782609</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>941.4694444652933</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>11.43478260869565</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>941.4694444652933</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>12.47826086956522</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>941.4694444652933</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>13.52173913043478</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>941.4694444652933</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>14.56521739130435</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>941.4694444652933</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>15.60869565217391</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>941.4694444652933</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>16.65217391304348</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>941.4694444652933</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>17.69565217391304</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>941.4694444652933</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>18.73913043478261</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>941.4694444652933</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>19.78260869565217</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>941.4694444652933</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>20.82608695652174</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>941.4694444652933</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>21.8695652173913</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>941.4694444652933</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>22.91304347826087</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>941.4694444652933</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>23.95652173913043</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>941.4694444652933</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2.043478260869565</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>3.08695652173913</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>4.130434782608695</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5.173913043478261</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>6.217391304347826</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>7.260869565217391</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>8.304347826086957</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>9.347826086956522</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>10.39130434782609</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>11.43478260869565</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>12.47826086956522</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>13.52173913043478</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>200</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>14.56521739130435</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>200</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>15.60869565217391</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>200</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>16.65217391304348</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>17.69565217391304</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>18.73913043478261</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>19.78260869565217</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>20.82608695652174</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>21.8695652173913</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>200</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>22.91304347826087</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>23.95652173913043</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>200</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2.043478260869565</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1016.666666666667</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>3.08695652173913</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1008.333333333333</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>4.130434782608695</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1000</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5.173913043478261</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>991.6666666666667</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>6.217391304347826</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>983.3333333333334</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>7.260869565217391</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>975</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>8.304347826086957</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>966.6666666666667</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>9.347826086956522</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>958.3333333333334</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>10.39130434782609</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>950</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>11.43478260869565</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>941.6666666666667</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>12.47826086956522</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>933.3333333333334</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>13.52173913043478</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>925</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>14.56521739130435</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>916.6666666666667</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>15.60869565217391</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>908.3333333333334</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>16.65217391304348</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>900</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>17.69565217391304</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>891.6666666666667</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>18.73913043478261</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>883.3333333333334</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>19.78260869565217</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>875</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>20.82608695652174</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>866.6666666666667</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>21.8695652173913</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>858.3333333333334</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>22.91304347826087</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>850</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>23.95652173913043</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>841.6666666666667</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2.043478260869565</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>4898.000303983707</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>3.08695652173913</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>2345.980151991853</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>4.130434782608695</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1068.939875995926</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5.173913043478261</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>429.3792359979634</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>6.217391304347826</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>108.5480089789817</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>7.260869565217391</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>52.92902062071153</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>8.304347826086957</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>134.7395656716581</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>9.347826086956522</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>176.7275887507421</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>10.39130434782609</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>198.8151783494359</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>11.43478260869565</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>210.9634869885231</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>12.47826086956522</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>218.1532002862041</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>13.52173913043478</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>222.874771502964</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>14.56521739130435</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>226.3735388249443</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>15.60869565217391</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>229.272284016668</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>16.65217391304348</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>231.8825117585729</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>17.69565217391304</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>234.3600893270268</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>18.73913043478261</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>236.7830664457288</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>19.78260869565217</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>239.1905852229029</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>20.82608695652174</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>241.6023351314907</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>21.8695652173913</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>244.0282805109891</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>22.91304347826087</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>246.4735243301875</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>23.95652173913043</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>248.9407400805321</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2.043478260869565</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>941.4694444652933</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>3.08695652173913</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>941.4694444652933</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>4.130434782608695</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>941.4694444652933</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5.173913043478261</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>941.4694444652933</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>6.217391304347826</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>941.4694444652933</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>7.260869565217391</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>941.4694444652933</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>8.304347826086957</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>941.4694444652933</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>9.347826086956522</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>941.4694444652933</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>10.39130434782609</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>941.4694444652933</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>11.43478260869565</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>941.4694444652933</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>12.47826086956522</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>941.4694444652933</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>13.52173913043478</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>941.4694444652933</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>14.56521739130435</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>941.4694444652933</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>15.60869565217391</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>941.4694444652933</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>16.65217391304348</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>941.4694444652933</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>17.69565217391304</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>941.4694444652933</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>18.73913043478261</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>941.4694444652933</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>19.78260869565217</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>941.4694444652933</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>20.82608695652174</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>941.4694444652933</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>21.8695652173913</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>941.4694444652933</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>22.91304347826087</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>941.4694444652933</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>23.95652173913043</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>941.4694444652933</v>
